--- a/mat-table/mat-table-simple/src/app/data/Detail information per licensed site.xlsx
+++ b/mat-table/mat-table-simple/src/app/data/Detail information per licensed site.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Repo\cyfsa\client\doc\_SP\EA Governance\BIPD Dashboard Data Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\MyAngularMaterial\mat-table\mat-table-simple\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F1CE73-2AA8-4A7B-8C72-2977B44B5661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0800EF-FAC9-45FA-BDD3-1D7D92FA660D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
+    <sheet name="City" sheetId="2" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="235">
   <si>
     <t>Licensee Name</t>
   </si>
@@ -721,6 +723,12 @@
     <t>Applied filters:
 Des is Children's Residences
 Region is Central</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>',</t>
   </si>
 </sst>
 </file>
@@ -765,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -775,6 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,9 +1100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5939,19 +5948,486 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832860EC-1B39-4E07-BB73-1F4566813D76}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="s">
+        <v>139</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="s">
+        <v>183</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A87">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD242964-44CA-412A-886D-3FE28A089F55}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A87">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6101,18 +6577,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8825DCC5-4430-48F3-BFF6-D8F2301295DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB425987-770F-4FE6-818F-DF5BA7CE28F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB425987-770F-4FE6-818F-DF5BA7CE28F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8825DCC5-4430-48F3-BFF6-D8F2301295DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
